--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_thermo_rxns/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_thermo_rxns/model_v1_manual2_EX.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,1176 +31,906 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="300">
   <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
   <si>
-    <t>Model name</t>
+    <t xml:space="preserve">Model name</t>
   </si>
   <si>
-    <t>putida_v1</t>
+    <t xml:space="preserve">putida_v1</t>
   </si>
   <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
   </si>
   <si>
-    <t>ORACLE</t>
+    <t xml:space="preserve">ORACLE</t>
   </si>
   <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
   </si>
   <si>
-    <t>FMINCON</t>
+    <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
-    <t>Number of model structures</t>
+    <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t>Number of particles</t>
+    <t xml:space="preserve">Number of particles</t>
   </si>
   <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
   </si>
   <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
   </si>
   <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
-    <t>rxn ID</t>
+    <t xml:space="preserve">rxn ID</t>
   </si>
   <si>
-    <t>m_glc__D_e</t>
+    <t xml:space="preserve">m_glc__D_e</t>
   </si>
   <si>
-    <t>m_glc__D_p</t>
+    <t xml:space="preserve">m_glc__D_p</t>
   </si>
   <si>
-    <t>m_atp_c</t>
+    <t xml:space="preserve">m_atp_c</t>
   </si>
   <si>
-    <t>m_glc__D_c</t>
+    <t xml:space="preserve">m_glc__D_c</t>
   </si>
   <si>
-    <t>m_adp_c</t>
+    <t xml:space="preserve">m_adp_c</t>
   </si>
   <si>
-    <t>m_pi_c</t>
+    <t xml:space="preserve">m_pi_c</t>
   </si>
   <si>
-    <t>m_g6p_c</t>
+    <t xml:space="preserve">m_g6p_c</t>
   </si>
   <si>
-    <t>m_glcn_p</t>
+    <t xml:space="preserve">m_glcn_p</t>
   </si>
   <si>
-    <t>m_glcn_c</t>
+    <t xml:space="preserve">m_glcn_c</t>
   </si>
   <si>
-    <t>m_6pgc_c</t>
+    <t xml:space="preserve">m_6pgc_c</t>
   </si>
   <si>
-    <t>m_2dhglcn_p</t>
+    <t xml:space="preserve">m_2dhglcn_p</t>
   </si>
   <si>
-    <t>m_2dhglcn_c</t>
+    <t xml:space="preserve">m_2dhglcn_c</t>
   </si>
   <si>
-    <t>m_6p2dhglcn_c</t>
+    <t xml:space="preserve">m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>m_nadh_c</t>
+    <t xml:space="preserve">m_nadh_c</t>
   </si>
   <si>
-    <t>m_nad_c</t>
+    <t xml:space="preserve">m_nad_c</t>
   </si>
   <si>
-    <t>m_nadph_c</t>
+    <t xml:space="preserve">m_nadph_c</t>
   </si>
   <si>
-    <t>m_nadp_c</t>
+    <t xml:space="preserve">m_nadp_c</t>
   </si>
   <si>
-    <t>m_q8_c</t>
+    <t xml:space="preserve">m_q8_c</t>
   </si>
   <si>
-    <t>m_q8h2_c</t>
+    <t xml:space="preserve">m_q8h2_c</t>
   </si>
   <si>
-    <t>m_6pgl_c</t>
+    <t xml:space="preserve">m_6pgl_c</t>
   </si>
   <si>
-    <t>m_co2_c</t>
+    <t xml:space="preserve">m_co2_c</t>
   </si>
   <si>
-    <t>m_ru5p__D_c</t>
+    <t xml:space="preserve">m_ru5p__D_c</t>
   </si>
   <si>
-    <t>m_r5p_c</t>
+    <t xml:space="preserve">m_r5p_c</t>
   </si>
   <si>
-    <t>m_xu5p__D_c</t>
+    <t xml:space="preserve">m_xu5p__D_c</t>
   </si>
   <si>
-    <t>m_g3p_c</t>
+    <t xml:space="preserve">m_g3p_c</t>
   </si>
   <si>
-    <t>m_s7p_c</t>
+    <t xml:space="preserve">m_s7p_c</t>
   </si>
   <si>
-    <t>m_e4p_c</t>
+    <t xml:space="preserve">m_e4p_c</t>
   </si>
   <si>
-    <t>m_f6p_c</t>
+    <t xml:space="preserve">m_f6p_c</t>
   </si>
   <si>
-    <t>m_2ddg6p_c</t>
+    <t xml:space="preserve">m_2ddg6p_c</t>
   </si>
   <si>
-    <t>m_pyr_c</t>
+    <t xml:space="preserve">m_pyr_c</t>
   </si>
   <si>
-    <t>m_fdp_c</t>
+    <t xml:space="preserve">m_fdp_c</t>
   </si>
   <si>
-    <t>m_dhap_c</t>
+    <t xml:space="preserve">m_dhap_c</t>
   </si>
   <si>
-    <t>m_13dpg_c</t>
+    <t xml:space="preserve">m_13dpg_c</t>
   </si>
   <si>
-    <t>m_3pg_c</t>
+    <t xml:space="preserve">m_3pg_c</t>
   </si>
   <si>
-    <t>m_2pg_c</t>
+    <t xml:space="preserve">m_2pg_c</t>
   </si>
   <si>
-    <t>m_pep_c</t>
+    <t xml:space="preserve">m_pep_c</t>
   </si>
   <si>
-    <t>m_h2o2_c</t>
+    <t xml:space="preserve">m_h2o2_c</t>
   </si>
   <si>
-    <t>m_gthrd_c</t>
+    <t xml:space="preserve">m_gthrd_c</t>
   </si>
   <si>
-    <t>m_gthox_c</t>
+    <t xml:space="preserve">m_gthox_c</t>
   </si>
   <si>
-    <t>m_h2o_c</t>
+    <t xml:space="preserve">m_h2o_c</t>
   </si>
   <si>
-    <t>m_pyr_e</t>
+    <t xml:space="preserve">m_pyr_e</t>
   </si>
   <si>
-    <t>m_pep_e</t>
+    <t xml:space="preserve">m_pep_e</t>
   </si>
   <si>
-    <t>m_h2o2_e</t>
+    <t xml:space="preserve">m_h2o2_e</t>
   </si>
   <si>
-    <t>m_g6p_e</t>
+    <t xml:space="preserve">m_g6p_e</t>
   </si>
   <si>
-    <t>m_6pgc_e</t>
+    <t xml:space="preserve">m_6pgc_e</t>
   </si>
   <si>
-    <t>m_r5p_e</t>
+    <t xml:space="preserve">m_r5p_e</t>
   </si>
   <si>
-    <t>m_xu5p__D_e</t>
+    <t xml:space="preserve">m_xu5p__D_e</t>
   </si>
   <si>
-    <t>m_g3p_e</t>
+    <t xml:space="preserve">m_g3p_e</t>
   </si>
   <si>
-    <t>m_e4p_e</t>
+    <t xml:space="preserve">m_e4p_e</t>
   </si>
   <si>
-    <t>m_f6p_e</t>
+    <t xml:space="preserve">m_f6p_e</t>
   </si>
   <si>
-    <t>m_3pg_e</t>
+    <t xml:space="preserve">m_3pg_e</t>
   </si>
   <si>
-    <t>R_GLCtex</t>
+    <t xml:space="preserve">R_GLCtex</t>
   </si>
   <si>
-    <t>R_GLCabcpp</t>
+    <t xml:space="preserve">R_GLCabcpp</t>
   </si>
   <si>
-    <t>R_GLK</t>
+    <t xml:space="preserve">R_GLK</t>
   </si>
   <si>
-    <t>R_GLCNt2rpp</t>
+    <t xml:space="preserve">R_GLCNt2rpp</t>
   </si>
   <si>
-    <t>R_GNK</t>
+    <t xml:space="preserve">R_GNK</t>
   </si>
   <si>
-    <t>R_2DHGLCNkt_tpp</t>
+    <t xml:space="preserve">R_2DHGLCNkt_tpp</t>
   </si>
   <si>
-    <t>R_2DHGLCK</t>
+    <t xml:space="preserve">R_2DHGLCK</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NAD</t>
+    <t xml:space="preserve">R_PGLCNDH_NAD</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NADP</t>
+    <t xml:space="preserve">R_PGLCNDH_NADP</t>
   </si>
   <si>
-    <t>R_GLCDpp</t>
+    <t xml:space="preserve">R_GLCDpp</t>
   </si>
   <si>
-    <t>R_GAD2ktpp</t>
+    <t xml:space="preserve">R_GAD2ktpp</t>
   </si>
   <si>
-    <t>R_G6PDH2</t>
+    <t xml:space="preserve">R_G6PDH2</t>
   </si>
   <si>
-    <t>R_G6PDH2_NAD</t>
+    <t xml:space="preserve">R_G6PDH2_NAD</t>
   </si>
   <si>
-    <t>R_G6PDH2_NADP</t>
+    <t xml:space="preserve">R_G6PDH2_NADP</t>
   </si>
   <si>
-    <t>R_PGL</t>
+    <t xml:space="preserve">R_PGL</t>
   </si>
   <si>
-    <t>R_GND_NAD</t>
+    <t xml:space="preserve">R_GND_NAD</t>
   </si>
   <si>
-    <t>R_GND_NADP</t>
+    <t xml:space="preserve">R_GND_NADP</t>
   </si>
   <si>
-    <t>R_RPI</t>
+    <t xml:space="preserve">R_RPI</t>
   </si>
   <si>
-    <t>R_RPE</t>
+    <t xml:space="preserve">R_RPE</t>
   </si>
   <si>
-    <t>R_TKT1</t>
+    <t xml:space="preserve">R_TKT1</t>
   </si>
   <si>
-    <t>R_TKT2</t>
+    <t xml:space="preserve">R_TKT2</t>
   </si>
   <si>
-    <t>R_TALA</t>
+    <t xml:space="preserve">R_TALA</t>
   </si>
   <si>
-    <t>R_EDD</t>
+    <t xml:space="preserve">R_EDD</t>
   </si>
   <si>
-    <t>R_EDA</t>
+    <t xml:space="preserve">R_EDA</t>
   </si>
   <si>
-    <t>R_PGI</t>
+    <t xml:space="preserve">R_PGI</t>
   </si>
   <si>
-    <t>R_FBP</t>
+    <t xml:space="preserve">R_FBP</t>
   </si>
   <si>
-    <t>R_FBA</t>
+    <t xml:space="preserve">R_FBA</t>
   </si>
   <si>
-    <t>R_TPI</t>
+    <t xml:space="preserve">R_TPI</t>
   </si>
   <si>
-    <t>R_GAPD</t>
+    <t xml:space="preserve">R_GAPD</t>
   </si>
   <si>
-    <t>R_PGK</t>
+    <t xml:space="preserve">R_PGK</t>
   </si>
   <si>
-    <t>R_PGM</t>
+    <t xml:space="preserve">R_PGM</t>
   </si>
   <si>
-    <t>R_ENO</t>
+    <t xml:space="preserve">R_ENO</t>
   </si>
   <si>
-    <t>R_PYK</t>
+    <t xml:space="preserve">R_PYK</t>
   </si>
   <si>
-    <t>R_GTHPi</t>
+    <t xml:space="preserve">R_GTHPi</t>
   </si>
   <si>
-    <t>R_GTHOr</t>
+    <t xml:space="preserve">R_GTHOr</t>
   </si>
   <si>
-    <t>R_AXPr</t>
+    <t xml:space="preserve">R_AXPr</t>
   </si>
   <si>
-    <t>R_NADHr</t>
+    <t xml:space="preserve">R_NADHr</t>
   </si>
   <si>
-    <t>R_NADPHr</t>
+    <t xml:space="preserve">R_NADPHr</t>
   </si>
   <si>
-    <t>R_EX_pyr</t>
+    <t xml:space="preserve">R_EX_pyr</t>
   </si>
   <si>
-    <t>R_EX_pep</t>
+    <t xml:space="preserve">R_EX_pep</t>
   </si>
   <si>
-    <t>R_EX_h2o2</t>
+    <t xml:space="preserve">R_EX_h2o2</t>
   </si>
   <si>
-    <t>R_EX_g6p</t>
+    <t xml:space="preserve">R_EX_g6p</t>
   </si>
   <si>
-    <t>R_EX_6pgc</t>
+    <t xml:space="preserve">R_EX_6pgc</t>
   </si>
   <si>
-    <t>R_EX_r5p</t>
+    <t xml:space="preserve">R_EX_r5p</t>
   </si>
   <si>
-    <t>R_EX_xu5p__D</t>
+    <t xml:space="preserve">R_EX_xu5p__D</t>
   </si>
   <si>
-    <t>R_EX_g3p</t>
+    <t xml:space="preserve">R_EX_g3p</t>
   </si>
   <si>
-    <t>R_EX_e4p</t>
+    <t xml:space="preserve">R_EX_e4p</t>
   </si>
   <si>
-    <t>R_EX_f6p</t>
+    <t xml:space="preserve">R_EX_f6p</t>
   </si>
   <si>
-    <t>R_EX_3pg</t>
+    <t xml:space="preserve">R_EX_3pg</t>
   </si>
   <si>
-    <t>ID</t>
+    <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t>Metabolite name</t>
+    <t xml:space="preserve">Metabolite name</t>
   </si>
   <si>
-    <t>balanced?</t>
+    <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t>active?</t>
+    <t xml:space="preserve">D-glucose extracellular</t>
   </si>
   <si>
-    <t>fixed?</t>
+    <t xml:space="preserve">D-glucose periplasm</t>
   </si>
   <si>
-    <t>D-glucose extracellular</t>
+    <t xml:space="preserve">atp cytoplasm</t>
   </si>
   <si>
-    <t>D-glucose periplasm</t>
+    <t xml:space="preserve">D-glucose cytoplasm</t>
   </si>
   <si>
-    <t>atp cytoplasm</t>
+    <t xml:space="preserve">adp cytoplasm</t>
   </si>
   <si>
-    <t>D-glucose cytoplasm</t>
+    <t xml:space="preserve">phosphate cytoplasm</t>
   </si>
   <si>
-    <t>adp cytoplasm</t>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate cytoplasm</t>
   </si>
   <si>
-    <t>phosphate cytoplasm</t>
+    <t xml:space="preserve">D-gluconate periplasm</t>
   </si>
   <si>
-    <t>alpha D-glucose 6 phosphate cytoplasm</t>
+    <t xml:space="preserve">D-gluconate cytoplasm</t>
   </si>
   <si>
-    <t>D-gluconate periplasm</t>
+    <t xml:space="preserve">6-phospho-D-gluconate cytoplasm</t>
   </si>
   <si>
-    <t>D-gluconate cytoplasm</t>
+    <t xml:space="preserve">2-Dehydro-D-gluconate periplasm</t>
   </si>
   <si>
-    <t>6-phospho-D-gluconate cytoplasm</t>
+    <t xml:space="preserve">2-Dehydro-D-gluconate cytosol</t>
   </si>
   <si>
-    <t>2-Dehydro-D-gluconate periplasm</t>
+    <t xml:space="preserve">6-phospho-2-Dehydro-D-gluconate cytosol</t>
   </si>
   <si>
-    <t>2-Dehydro-D-gluconate cytosol</t>
+    <t xml:space="preserve">nad cytoplasm</t>
   </si>
   <si>
-    <t>6-phospho-2-Dehydro-D-gluconate cytosol</t>
+    <t xml:space="preserve">nadh cytoplasm</t>
   </si>
   <si>
-    <t>nad cytoplasm</t>
+    <t xml:space="preserve">nadph cytoplasm</t>
   </si>
   <si>
-    <t>nadh cytoplasm</t>
+    <t xml:space="preserve">nadp cytoplasm</t>
   </si>
   <si>
-    <t>nadph cytoplasm</t>
+    <t xml:space="preserve">Ubiquinone-8</t>
   </si>
   <si>
-    <t>nadp cytoplasm</t>
+    <t xml:space="preserve">Ubiquinol-8</t>
   </si>
   <si>
-    <t>Ubiquinone-8</t>
+    <t xml:space="preserve">6-phospho D-glucono-1,5-lactone</t>
   </si>
   <si>
-    <t>Ubiquinol-8</t>
+    <t xml:space="preserve">carbon dioxide</t>
   </si>
   <si>
-    <t>6-phospho D-glucono-1,5-lactone</t>
+    <t xml:space="preserve">D-ribulose-5-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>carbon dioxide</t>
+    <t xml:space="preserve">alpha-D-ribose-5-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-ribulose-5-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-xylulose-5-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>alpha-D-ribose-5-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-xylulose-5-phosphate cytoplasm</t>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-glyceraldehyde 3-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-erythrose-4-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>Sedoheptulose-7-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-fructose-6-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-erythrose-4-phosphate cytoplasm</t>
+    <t xml:space="preserve">2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-fructose-6-phosphate cytoplasm</t>
+    <t xml:space="preserve">pyruvate cytoplasm</t>
   </si>
   <si>
-    <t>2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
+    <t xml:space="preserve">D-fructose-1,6-bisphosphate cytoplasm</t>
   </si>
   <si>
-    <t>pyruvate cytoplasm</t>
+    <t xml:space="preserve">Dehydroxyacetone-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>D-fructose-1,6-bisphosphate cytoplasm</t>
+    <t xml:space="preserve">3-phospho-D-glyceroyl-phosphate cytoplasm</t>
   </si>
   <si>
-    <t>Dehydroxyacetone-phosphate cytoplasm</t>
+    <t xml:space="preserve">3-phospho-D-glycerate cytoplasm</t>
   </si>
   <si>
-    <t>3-phospho-D-glyceroyl-phosphate cytoplasm</t>
+    <t xml:space="preserve">2-phospho-D-glycerate cytoplasm</t>
   </si>
   <si>
-    <t>3-phospho-D-glycerate cytoplasm</t>
+    <t xml:space="preserve">phosphoenolpyruvate cytoplasm</t>
   </si>
   <si>
-    <t>2-phospho-D-glycerate cytoplasm</t>
+    <t xml:space="preserve">hydrogen peroxide cytoplasm</t>
   </si>
   <si>
-    <t>phosphoenolpyruvate cytoplasm</t>
+    <t xml:space="preserve">reduced glutathione</t>
   </si>
   <si>
-    <t>hydrogen peroxide cytoplasm</t>
+    <t xml:space="preserve">oxidized glutathione</t>
   </si>
   <si>
-    <t>reduced glutathione</t>
+    <t xml:space="preserve">water</t>
   </si>
   <si>
-    <t>oxidized glutathione</t>
+    <t xml:space="preserve">pyruvate extracellular</t>
   </si>
   <si>
-    <t>water</t>
+    <t xml:space="preserve">phosphoenolpyruvate extracellular</t>
   </si>
   <si>
-    <t>pyruvate extracellular</t>
+    <t xml:space="preserve">hydrogen peroxide extracellular</t>
   </si>
   <si>
-    <t>phosphoenolpyruvate extracellular</t>
+    <t xml:space="preserve">reaction name</t>
   </si>
   <si>
-    <t>hydrogen peroxide extracellular</t>
+    <t xml:space="preserve">transportRxn?</t>
   </si>
   <si>
-    <t>reaction name</t>
+    <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
-    <t>transportRxn?</t>
+    <t xml:space="preserve">Glucose transport via diffusion (extracellular to periplasm)</t>
   </si>
   <si>
-    <t>modelled?</t>
+    <t xml:space="preserve">D-glucose transport via ABC system (periplasm)</t>
   </si>
   <si>
-    <t>isoenzymes</t>
+    <t xml:space="preserve">Glucokinase</t>
   </si>
   <si>
-    <t>Glucose transport via diffusion (extracellular to periplasm)</t>
+    <t xml:space="preserve">D-gluconate transport via proton symport, reversible (periplasm)</t>
   </si>
   <si>
-    <t>D-glucose transport via ABC system (periplasm)</t>
+    <t xml:space="preserve">Gluconokinase</t>
   </si>
   <si>
-    <t>Glucokinase</t>
+    <t xml:space="preserve">Ketogluconate transporter</t>
   </si>
   <si>
-    <t>D-gluconate transport via proton symport, reversible (periplasm)</t>
+    <t xml:space="preserve">dehydroglucokinase</t>
   </si>
   <si>
-    <t>Gluconokinase</t>
+    <t xml:space="preserve">Phosphogluconate-2-dehydrogenase</t>
   </si>
   <si>
-    <t>Ketogluconate transporter</t>
+    <t xml:space="preserve">Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
   </si>
   <si>
-    <t>dehydroglucokinase</t>
+    <t xml:space="preserve">Gluconate-2-dehydrogenase periplasm</t>
   </si>
   <si>
-    <t>Phosphogluconate-2-dehydrogenase</t>
+    <t xml:space="preserve">Glucose-6-phosphate dehydrogenase</t>
   </si>
   <si>
-    <t>Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
+    <t xml:space="preserve">G6PDH2</t>
   </si>
   <si>
-    <t>Gluconate-2-dehydrogenase periplasm</t>
+    <t xml:space="preserve">6-Phosphogluconolactonase</t>
   </si>
   <si>
-    <t>Glucose-6-phosphate dehydrogenase</t>
+    <t xml:space="preserve">Phosphogluconate dehydrogenase</t>
   </si>
   <si>
-    <t>G6PDH2</t>
+    <t xml:space="preserve">Ribose-5-phosphate isomerase</t>
   </si>
   <si>
-    <t>6-Phosphogluconolactonase</t>
+    <t xml:space="preserve">Ribulose 5-phosphate 3-epimerase</t>
   </si>
   <si>
-    <t>Phosphogluconate dehydrogenase</t>
+    <t xml:space="preserve">Transketolase 1</t>
   </si>
   <si>
-    <t>Ribose-5-phosphate isomerase</t>
+    <t xml:space="preserve">Transketolase 2</t>
   </si>
   <si>
-    <t>Ribulose 5-phosphate 3-epimerase</t>
+    <t xml:space="preserve">transaldolase</t>
   </si>
   <si>
-    <t>Transketolase 1</t>
+    <t xml:space="preserve">6-Phosphogluconate dehydratase</t>
   </si>
   <si>
-    <t>Transketolase 2</t>
+    <t xml:space="preserve">2-dehydro-3-deoxy-phosphogluconate aldolase</t>
   </si>
   <si>
-    <t>transaldolase</t>
+    <t xml:space="preserve">Glucose-6-phosphate-isomerase</t>
   </si>
   <si>
-    <t>6-Phosphogluconate dehydratase</t>
+    <t xml:space="preserve">Fructose-biphosphatase</t>
   </si>
   <si>
-    <t>2-dehydro-3-deoxy-phosphogluconate aldolase</t>
+    <t xml:space="preserve">Fructose-biphosphate-aldolase</t>
   </si>
   <si>
-    <t>Glucose-6-phosphate-isomerase</t>
+    <t xml:space="preserve">Triose phosphate isomerase</t>
   </si>
   <si>
-    <t>Fructose-biphosphatase</t>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate dehydrogenase</t>
   </si>
   <si>
-    <t>Fructose-biphosphate-aldolase</t>
+    <t xml:space="preserve">Phosphoglycerate kinase</t>
   </si>
   <si>
-    <t>Triose phosphate isomerase</t>
+    <t xml:space="preserve">Phosphoglycerate mutase</t>
   </si>
   <si>
-    <t>Glyceraldehyde-3-phosphate dehydrogenase</t>
+    <t xml:space="preserve">Enolase</t>
   </si>
   <si>
-    <t>Phosphoglycerate kinase</t>
+    <t xml:space="preserve">Pyruvate kinase</t>
   </si>
   <si>
-    <t>Phosphoglycerate mutase</t>
+    <t xml:space="preserve">Glutathione peridoxase</t>
   </si>
   <si>
-    <t>Enolase</t>
+    <t xml:space="preserve">Glutathione oxidoreductase</t>
   </si>
   <si>
-    <t>Pyruvate kinase</t>
+    <t xml:space="preserve">atp and adp regeneration</t>
   </si>
   <si>
-    <t>Glutathione peridoxase</t>
+    <t xml:space="preserve">nad and nadh regeneration</t>
   </si>
   <si>
-    <t>Glutathione oxidoreductase</t>
+    <t xml:space="preserve">nadp and nadph regeneration</t>
   </si>
   <si>
-    <t>atp and adp regeneration</t>
+    <t xml:space="preserve">pyruvate exchange</t>
   </si>
   <si>
-    <t>nad and nadh regeneration</t>
+    <t xml:space="preserve">phosphoenlopyruvate exchange</t>
   </si>
   <si>
-    <t>nadp and nadph regeneration</t>
+    <t xml:space="preserve">peroxide exchange</t>
   </si>
   <si>
-    <t>pyruvate exchange</t>
+    <t xml:space="preserve">met</t>
   </si>
   <si>
-    <t>phosphoenlopyruvate exchange</t>
+    <t xml:space="preserve">rxn</t>
   </si>
   <si>
-    <t>peroxide exchange</t>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
   </si>
   <si>
-    <t>met</t>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
   </si>
   <si>
-    <t>rxn</t>
+    <t xml:space="preserve">min (M)</t>
   </si>
   <si>
-    <t>∆Gr'_min (kJ/mol)</t>
+    <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t>∆Gr'_max (kJ/mol)</t>
+    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
   </si>
   <si>
-    <t>min (M)</t>
+    <t xml:space="preserve">MBo10_mean</t>
   </si>
   <si>
-    <t>max (M)</t>
+    <t xml:space="preserve">MBo10_std</t>
   </si>
   <si>
-    <t>Fluxes (umol/gdcw/h)</t>
+    <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t>MBo10_mean</t>
+    <t xml:space="preserve">MBo10_LB2</t>
   </si>
   <si>
-    <t>MBo10_std</t>
+    <t xml:space="preserve">MBo10_meas2</t>
   </si>
   <si>
-    <t>MBo10_mean2</t>
+    <t xml:space="preserve">MBo10_UB2</t>
   </si>
   <si>
-    <t>MBo10_std2</t>
+    <t xml:space="preserve">reaction ID</t>
   </si>
   <si>
-    <t>enzyme/rxn</t>
+    <t xml:space="preserve">kinetic mechanism</t>
   </si>
   <si>
-    <t>MBo10_LB2</t>
+    <t xml:space="preserve">substrate order</t>
   </si>
   <si>
-    <t>MBo10_meas2</t>
+    <t xml:space="preserve">product order</t>
   </si>
   <si>
-    <t>MBo10_UB2</t>
+    <t xml:space="preserve">promiscuous</t>
   </si>
   <si>
-    <t>reaction ID</t>
+    <t xml:space="preserve">inhibitors</t>
   </si>
   <si>
-    <t>kinetic mechanism</t>
+    <t xml:space="preserve">activators</t>
   </si>
   <si>
-    <t>substrate order</t>
+    <t xml:space="preserve">negative effector</t>
   </si>
   <si>
-    <t>product order</t>
+    <t xml:space="preserve">positive effector</t>
   </si>
   <si>
-    <t>promiscuous</t>
+    <t xml:space="preserve">allosteric</t>
   </si>
   <si>
-    <t>inhibitors</t>
+    <t xml:space="preserve">subunits</t>
   </si>
   <si>
-    <t>activators</t>
+    <t xml:space="preserve">diffusion</t>
   </si>
   <si>
-    <t>negative effector</t>
+    <t xml:space="preserve">m_glc_D_e</t>
   </si>
   <si>
-    <t>positive effector</t>
+    <t xml:space="preserve">m_glc_D_p</t>
   </si>
   <si>
-    <t>allosteric</t>
+    <t xml:space="preserve">orderedBiTer</t>
   </si>
   <si>
-    <t>subunits</t>
+    <t xml:space="preserve">m_glc_D_p m_atp_c</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
+    <t xml:space="preserve">m_adp_c m_pi_c m_glc_D_c</t>
   </si>
   <si>
-    <t>mechanism_ref</t>
+    <t xml:space="preserve">randomBiBi</t>
   </si>
   <si>
-    <t>inhibitors_ref_type</t>
+    <t xml:space="preserve">m_glc_D_e m_atp_c</t>
   </si>
   <si>
-    <t>inhibitors_ref</t>
+    <t xml:space="preserve">m_adp_c m_g6p_c</t>
   </si>
   <si>
-    <t>activators_ref_type</t>
+    <t xml:space="preserve">uniUni</t>
   </si>
   <si>
-    <t>activators_ref</t>
+    <t xml:space="preserve">m_glcn_c m_atp_c </t>
   </si>
   <si>
-    <t>negative_effectors_ref_type</t>
+    <t xml:space="preserve">m_adp_c m_6pgc_c</t>
   </si>
   <si>
-    <t>negative_effectors_ref</t>
+    <t xml:space="preserve">2dhglcn_p</t>
   </si>
   <si>
-    <t>positive_effectors_ref_type</t>
+    <t xml:space="preserve">orderedBiBi</t>
   </si>
   <si>
-    <t>positive_effectors_ref</t>
+    <t xml:space="preserve">m_atp_c  m_2dhglcn_c</t>
   </si>
   <si>
-    <t>subunits_ref_type</t>
+    <t xml:space="preserve">m_6p2dhglcn_c m_adp_c</t>
   </si>
   <si>
-    <t>subunits_ref</t>
+    <t xml:space="preserve">PGLCNDH</t>
   </si>
   <si>
-    <t>subunits_comments1</t>
+    <t xml:space="preserve">m_nad_c m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>subunits_comments2</t>
+    <t xml:space="preserve">m_6pgc_c m_nadh_c</t>
   </si>
   <si>
-    <t>general_comments</t>
+    <t xml:space="preserve">R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
   </si>
   <si>
-    <t>diffusion</t>
+    <t xml:space="preserve">m_nadp_c m_6p2dhglcn_c</t>
   </si>
   <si>
-    <t>m_glc_D_e</t>
+    <t xml:space="preserve">m_6pgc_c m_nadph_c</t>
   </si>
   <si>
-    <t>m_glc_D_p</t>
+    <t xml:space="preserve">pingPongBiBi</t>
   </si>
   <si>
-    <t>doi</t>
+    <t xml:space="preserve">m_glc_D_p m_q8_c</t>
   </si>
   <si>
-    <t>10.1093/nar/gkv1049</t>
+    <t xml:space="preserve">m_glcn_p m_q8h2_c</t>
   </si>
   <si>
-    <t>diffusion setting subunits to 1</t>
+    <t xml:space="preserve">m_q8_c m_glcn_p</t>
   </si>
   <si>
-    <t> </t>
+    <t xml:space="preserve">m_2dhglcn_p m_q8h2_c</t>
   </si>
   <si>
-    <t>orderedBiTer</t>
+    <t xml:space="preserve">m_nadp_c m_g6p_c</t>
   </si>
   <si>
-    <t>m_glc_D_p m_atp_c</t>
+    <t xml:space="preserve">m_6pgl_c m_nadph_c</t>
   </si>
   <si>
-    <t>m_adp_c m_pi_c m_glc_D_c</t>
+    <t xml:space="preserve">m_nadph_c m_nadh_c</t>
   </si>
   <si>
-    <t>10.1146/annurev.biochem.73.011303.073626</t>
+    <t xml:space="preserve">G6PDH2CompInhib</t>
   </si>
   <si>
-    <t>assumed subunits</t>
+    <t xml:space="preserve">m_nad_c m_g6p_c</t>
   </si>
   <si>
-    <t>same as Laia</t>
+    <t xml:space="preserve">m_6pgl_c m_nadh_c</t>
   </si>
   <si>
-    <t>randomBiBi</t>
+    <t xml:space="preserve">R_G6PDH2_NAD R_G6PDH2_NADH</t>
   </si>
   <si>
-    <t>m_glc_D_e m_atp_c</t>
+    <t xml:space="preserve">m_nadph_c m_nadh_c </t>
   </si>
   <si>
-    <t>m_adp_c m_g6p_c</t>
+    <t xml:space="preserve">PGL</t>
   </si>
   <si>
-    <t>10.1016/0003-9861(72)90354-2</t>
+    <t xml:space="preserve">GNDCompInhib</t>
   </si>
   <si>
-    <t>looks like 1 subunit from metacyc</t>
+    <t xml:space="preserve">m_6pgc_c m_nad_c</t>
   </si>
   <si>
-    <t>Laia has 2</t>
+    <t xml:space="preserve">m_nadh_c m_ru5p_D_c</t>
   </si>
   <si>
-    <t>uniUni</t>
+    <t xml:space="preserve">R_GND_nad R_GND_nadp</t>
   </si>
   <si>
-    <t>Data form E.coli, permease, modelled as massAction</t>
+    <t xml:space="preserve">m_6pgc_c m_nadp_c </t>
   </si>
   <si>
-    <t>m_glcn_c m_atp_c </t>
+    <t xml:space="preserve">m_nadph_c m_ru5p_D_c</t>
   </si>
   <si>
-    <t>m_adp_c m_6pgc_c</t>
+    <t xml:space="preserve">m_ru5p_D_c</t>
   </si>
   <si>
-    <t>PMID</t>
+    <t xml:space="preserve">m_xu5p_D_c</t>
   </si>
   <si>
-    <t>2dhglcn_p</t>
+    <t xml:space="preserve">m_r5p_c m_xu5p_D_c</t>
   </si>
   <si>
-    <t>permease,modelled as massAction</t>
+    <t xml:space="preserve">m_g3p_c m_s7p_c</t>
   </si>
   <si>
-    <t>orderedBiBi</t>
+    <t xml:space="preserve">m_xu5p_D_c m_e4p_c</t>
   </si>
   <si>
-    <t>m_atp_c  m_2dhglcn_c</t>
+    <t xml:space="preserve">m_g3p_c m_f6p_c</t>
   </si>
   <si>
-    <t>m_6p2dhglcn_c m_adp_c</t>
+    <t xml:space="preserve">m_s7p_c m_g3p_c</t>
   </si>
   <si>
-    <t>Laia has 1 and says no data</t>
+    <t xml:space="preserve">m_e4pc_m_f6p_c</t>
   </si>
   <si>
-    <t>NO DATA</t>
+    <t xml:space="preserve">uniUniActivTwoTracks</t>
   </si>
   <si>
-    <t>PGLCNDH</t>
+    <t xml:space="preserve">randomUniBi</t>
   </si>
   <si>
-    <t>m_nad_c m_6p2dhglcn_c</t>
+    <t xml:space="preserve">m_g3p_c m_pyr_c</t>
   </si>
   <si>
-    <t>m_6pgc_c m_nadh_c</t>
+    <t xml:space="preserve">orderedUniBi</t>
   </si>
   <si>
-    <t>R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
+    <t xml:space="preserve">m_f6p_c m_pi_c</t>
   </si>
   <si>
-    <t>m_nadp_c m_6p2dhglcn_c</t>
+    <t xml:space="preserve">orderedBiUni</t>
   </si>
   <si>
-    <t>m_6pgc_c m_nadph_c</t>
+    <t xml:space="preserve">m_dhap_c m_g3p_c</t>
   </si>
   <si>
-    <t>Laia has 4</t>
+    <t xml:space="preserve">orderedTerBi</t>
   </si>
   <si>
-    <t>pingPongBiBi</t>
+    <t xml:space="preserve">m_nad_c m_g3p_c m_pi_c</t>
   </si>
   <si>
-    <t>m_glc_D_p m_q8_c</t>
+    <t xml:space="preserve">m_13dpg_c m_nadh_c</t>
   </si>
   <si>
-    <t>m_glcn_p m_q8h2_c</t>
+    <t xml:space="preserve">m_adp_c m_13dpg_c</t>
   </si>
   <si>
-    <t>10.1021/ja204637d 10.1021/bi00368a031</t>
+    <t xml:space="preserve">m_3pg_c m_atp_c</t>
   </si>
   <si>
-    <t>10.1016/j.ijbiomac.2018.06.097</t>
+    <t xml:space="preserve">m_adp_c m_pep_c</t>
   </si>
   <si>
-    <t>putida 1 subunit, no inhibition in monomeric enzime, other data from Acinetobacter calcoaceticus--&gt; glucose has competitive inhibition in acinetobacter (2 subunits)</t>
+    <t xml:space="preserve">m_atp_c m_pyr_c</t>
   </si>
   <si>
-    <t>m_q8_c m_glcn_p</t>
+    <t xml:space="preserve">m_2ddg6p_c m_r5p_c m_f6p_c</t>
   </si>
   <si>
-    <t>m_2dhglcn_p m_q8h2_c</t>
+    <t xml:space="preserve">orderedTerUni</t>
   </si>
   <si>
-    <t>info from pseudomonas fluorescens. Only one catalytic unit, but 3 subunits in overall</t>
+    <t xml:space="preserve">m_h2o2_c m_gthrd_c m_gthrd_c</t>
   </si>
   <si>
-    <t>Barely any info, assuming orderedBiBi mech</t>
+    <t xml:space="preserve">pingPongUniUniUniBi</t>
   </si>
   <si>
-    <t>m_nadp_c m_g6p_c</t>
+    <t xml:space="preserve">m_nadph_c m_gthox_c</t>
   </si>
   <si>
-    <t>m_6pgl_c m_nadph_c</t>
+    <t xml:space="preserve">m_nadp_c m_gthrd_c m_gthrd_c</t>
   </si>
   <si>
-    <t>m_nadph_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>10.1016/0003-9861(83)90546-5</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID; PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>468836 4154934 7350909; 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>1257 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t>assumed mechansim</t>
-  </si>
-  <si>
-    <t>G6PDH2CompInhib</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD R_G6PDH2_NADH</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_nadh_c </t>
-  </si>
-  <si>
-    <t>PGL</t>
-  </si>
-  <si>
-    <t>Laia has 1</t>
-  </si>
-  <si>
-    <t>GNDCompInhib</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nad_c</t>
-  </si>
-  <si>
-    <t>m_nadh_c m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>R_GND_nad R_GND_nadp</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 2</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nadp_c </t>
-  </si>
-  <si>
-    <t>m_nadph_c m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>link PMID</t>
-  </si>
-  <si>
-    <t>https://www.rcsb.org/structure/4x84 12517338</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gky1048</t>
-  </si>
-  <si>
-    <t>m_r5p_c m_xu5p_D_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_s7p_c</t>
-  </si>
-  <si>
-    <t>Link PMID</t>
-  </si>
-  <si>
-    <t>https://www.rcsb.org/structure/4XEU 17914867</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c m_e4p_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 1</t>
-  </si>
-  <si>
-    <t>m_s7p_c m_g3p_c</t>
-  </si>
-  <si>
-    <t>m_e4pc_m_f6p_c</t>
-  </si>
-  <si>
-    <t>DOI PMID</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gky1048 8805555</t>
-  </si>
-  <si>
-    <t>same as in e. coli and some other organisms in brenda</t>
-  </si>
-  <si>
-    <t>uniUniActivTwoTracks</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>10.1016/S1874-6047(08)60452-7</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 3</t>
-  </si>
-  <si>
-    <t>Laia has 3</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
-  </si>
-  <si>
-    <t>Laia has 2 and says Data from E.coli</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m_f6p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
-  </si>
-  <si>
-    <t>Laia has 4  and says Data from E.coli</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>m_dhap_c m_g3p_c</t>
-  </si>
-  <si>
-    <t>doi PMID PMID</t>
-  </si>
-  <si>
-    <t>10.1016/0006-3002(58)90242-7 10712619 2649077</t>
-  </si>
-  <si>
-    <t>10.1016/j.pep.2011.06.020</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
-  </si>
-  <si>
-    <t>Laia has 4 and says data from p.aeuroginosa</t>
-  </si>
-  <si>
-    <t>10.1007/s00018-010-0473-9</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g3p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>m_13dpg_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 24</t>
-  </si>
-  <si>
-    <t>m_adp_c m_13dpg_c</t>
-  </si>
-  <si>
-    <t>m_3pg_c m_atp_c</t>
-  </si>
-  <si>
-    <t>10.1074/jbc.275.15.11147</t>
-  </si>
-  <si>
-    <t>PMID PMID</t>
-  </si>
-  <si>
-    <t>17085493 10437801</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
-  </si>
-  <si>
-    <t>Laia has 1 and says Data from Bacillus</t>
-  </si>
-  <si>
-    <t>not much data out there</t>
-  </si>
-  <si>
-    <t>Laia has 2 and says Data from Saccharomyces</t>
-  </si>
-  <si>
-    <t>m_adp_c m_pep_c</t>
-  </si>
-  <si>
-    <t>m_atp_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c m_r5p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>10.1111/j.0022-3646.1992.00472.x</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>468836 468836 468836</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 4</t>
-  </si>
-  <si>
-    <t>orderedTerUni</t>
-  </si>
-  <si>
-    <t>m_h2o2_c m_gthrd_c m_gthrd_c</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbagen.2012.09.018</t>
-  </si>
-  <si>
-    <t>doi doi</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
-    <t>pingPongUniUniUniBi</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_gthox_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_gthrd_c m_gthrd_c</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>massAction setting subunits to 1</t>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +938,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1351,13 +1080,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1195,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1479,1017 +1208,609 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>218</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <f aca="false">B3+B11</f>
-        <v>6140</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>611</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">D3+D10</f>
-        <v>960</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>611</v>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <f aca="false">0.63*10^3</f>
-        <v>630</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>60</v>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <f aca="false">0.63*10^3</f>
-        <v>630</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">0.63*10^3</f>
-        <v>630</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <f aca="false">4.79*10^3</f>
-        <v>4790</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">4.79*10^3</f>
-        <v>4790</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <f aca="false">4.79*10^3</f>
-        <v>4790</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">4.79*10^3</f>
-        <v>4790</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <f aca="false">0.72*10^3*0.5</f>
-        <v>360</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">0.72*10^3*0.5</f>
-        <v>360</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <f aca="false">0.72*10^3*0.5</f>
-        <v>360</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">0.72*10^3*0.5</f>
-        <v>360</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <f aca="false">5.51*10^3</f>
-        <v>5510</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">5.51*10^3</f>
-        <v>5510</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <f aca="false">1.17*10^3*0.5</f>
-        <v>585</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">1.17*10^3*0.5</f>
-        <v>585</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <f aca="false">1.17*10^3*0.25</f>
-        <v>292.5</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">1.17*10^3*0.25</f>
-        <v>292.5</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="4" t="n">
-        <f aca="false">1.17*10^3*0.25</f>
-        <v>292.5</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">1.17*10^3*0.25</f>
-        <v>292.5</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="4" t="n">
-        <f aca="false">1.17*10^3</f>
-        <v>1170</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <f aca="false">1.17*10^3</f>
-        <v>1170</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <f aca="false">0.59*10^3*0.5</f>
-        <v>295</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <f aca="false">0.59*10^3*0.5</f>
-        <v>295</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="4" t="n">
-        <f aca="false">0.59*10^3*0.5</f>
-        <v>295</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <f aca="false">0.59*10^3*0.5</f>
-        <v>295</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <f aca="false">0.44*10^3</f>
-        <v>440</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <f aca="false">0.44*10^3</f>
-        <v>440</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="4" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="4" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="4" t="n">
-        <f aca="false">6.11*10^ 3</f>
-        <v>6110</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <f aca="false">6.11*10^ 3</f>
-        <v>6110</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="4" t="n">
-        <f aca="false">6.11*10^ 3</f>
-        <v>6110</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">6.11*10^ 3</f>
-        <v>6110</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="4" t="n">
-        <f aca="false">0.57*10^3</f>
-        <v>570</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <f aca="false">0.57*10^3</f>
-        <v>570</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="4" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="4" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="4" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="4" t="n">
-        <f aca="false">5.11*10^3</f>
-        <v>5110</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <f aca="false">5.11*10^3</f>
-        <v>5110</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="4" t="n">
-        <f aca="false">5.11*10^3</f>
-        <v>5110</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <f aca="false">5.11*10^3</f>
-        <v>5110</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="4" t="n">
-        <f aca="false">4.36*10^3</f>
-        <v>4360</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <f aca="false">4.36*10^3</f>
-        <v>4360</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="4" t="n">
-        <f aca="false">4.36*10^3</f>
-        <v>4360</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <f aca="false">4.36*10^3</f>
-        <v>4360</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="4" t="n">
-        <f aca="false">3.89*10^3</f>
-        <v>3890</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <f aca="false">0.08*10^3</f>
-        <v>80</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <f aca="false">3.89*10^3</f>
-        <v>3890</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <f aca="false">0.08*10^3</f>
-        <v>80</v>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>70</v>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>70</v>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>2230</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <f aca="false">B37*0.1</f>
-        <v>223</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>2230</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <f aca="false">D37*0.1</f>
-        <v>223</v>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="4" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <f aca="false">B38*0.1</f>
-        <v>533.75</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <f aca="false">D38*0.1</f>
-        <v>533.75</v>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="4" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <f aca="false">B39*0.1</f>
-        <v>31.25</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <f aca="false">D39*0.1</f>
-        <v>31.25</v>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>100</v>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>470</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>470</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>47</v>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>700</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="4" t="n">
-        <v>290</v>
-      </c>
-      <c r="C45" s="4" t="n">
-        <f aca="false">B45*0.1</f>
-        <v>29</v>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>290</v>
-      </c>
-      <c r="E45" s="4" t="n">
-        <f aca="false">D45*0.1</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4" t="n">
-        <f aca="false">B46*0.1</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <f aca="false">D46*0.1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <f aca="false">B47*0.1</f>
-        <v>9</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <f aca="false">D47*0.1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <f aca="false">B48*0.1</f>
-        <v>14</v>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <f aca="false">D48*0.1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <f aca="false">B49*0.1</f>
-        <v>5</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <f aca="false">D49*0.1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>750</v>
-      </c>
-      <c r="C50" s="4" t="n">
-        <f aca="false">B50*0.1</f>
-        <v>75</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>750</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <f aca="false">D50*0.1</f>
-        <v>75</v>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2502,34 +1823,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2543,7 +1864,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2557,7 +1878,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2571,7 +1892,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2585,7 +1906,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2599,7 +1920,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2613,7 +1934,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2627,7 +1948,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2641,7 +1962,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2655,7 +1976,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2669,7 +1990,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2683,7 +2004,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2697,7 +2018,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2711,7 +2032,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2725,7 +2046,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2739,7 +2060,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2753,7 +2074,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2767,7 +2088,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2781,7 +2102,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2795,7 +2116,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2809,7 +2130,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2823,7 +2144,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2837,7 +2158,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2851,7 +2172,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2865,7 +2186,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2879,7 +2200,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2893,7 +2214,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2907,7 +2228,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2921,7 +2242,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2935,7 +2256,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2949,7 +2270,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2963,7 +2284,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2977,7 +2298,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2991,7 +2312,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -3005,7 +2326,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -3019,7 +2340,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -3031,9 +2352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -3045,9 +2366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -3061,7 +2382,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -3075,7 +2396,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -3089,7 +2410,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -3098,13 +2419,41 @@
         <v>0</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3117,753 +2466,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X25" activeCellId="0" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AB42"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>248</v>
-      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3874,12 +2550,8 @@
       <c r="K2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -3889,12 +2561,8 @@
       <c r="T2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
@@ -3904,13 +2572,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3921,12 +2589,8 @@
       <c r="K3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -3936,12 +2600,8 @@
       <c r="T3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
@@ -3951,13 +2611,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3968,12 +2628,8 @@
       <c r="K4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -3983,12 +2639,8 @@
       <c r="T4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -3998,7 +2650,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -4024,12 +2676,8 @@
       <c r="T5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -4039,13 +2687,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4059,27 +2707,15 @@
       <c r="K6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>5470828</v>
-      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -4089,10 +2725,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -4106,12 +2742,8 @@
       <c r="T7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>274</v>
-      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
@@ -4121,13 +2753,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4138,15 +2770,9 @@
       <c r="T8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
@@ -4155,16 +2781,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4182,16 +2808,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -4201,12 +2827,8 @@
       <c r="T10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
@@ -4215,38 +2837,26 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="K11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="V11" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
@@ -4255,13 +2865,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4269,15 +2879,9 @@
         <v>1</v>
       </c>
       <c r="T12" s="4"/>
-      <c r="X12" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
@@ -4286,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -4307,39 +2911,17 @@
       <c r="K13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="U13" s="4" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W13" s="4" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>305</v>
-      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
@@ -4348,19 +2930,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -4375,36 +2957,16 @@
       <c r="K14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="U14" s="4" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W14" s="4" t="n">
-        <v>6815421</v>
-      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
@@ -4413,19 +2975,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -4440,49 +3002,25 @@
       <c r="K15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="U15" s="4" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W15" s="4" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -4494,28 +3032,24 @@
       <c r="K16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4524,43 +3058,29 @@
       <c r="K17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W17" s="4" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4569,37 +3089,23 @@
       <c r="K18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W18" s="4" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -4608,160 +3114,110 @@
       <c r="K19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M21" s="4" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M22" s="4" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M23" s="4" t="n">
-        <v>8805555</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -4775,66 +3231,42 @@
       <c r="K24" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O24" s="4" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W24" s="4" t="n">
-        <v>6326623</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W25" s="4" t="n">
-        <v>12876349</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -4845,57 +3277,41 @@
       <c r="K26" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>346</v>
-      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -4903,31 +3319,19 @@
       <c r="K28" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -4938,31 +3342,23 @@
       <c r="K29" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>346</v>
-      </c>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
@@ -4973,66 +3369,42 @@
       <c r="K30" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M30" s="4" t="n">
-        <v>7447472</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W30" s="4" t="n">
-        <v>8636984</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="M31" s="4" t="n">
-        <v>5128739</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -5043,28 +3415,18 @@
       <c r="K32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="V32" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>371</v>
-      </c>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -5075,34 +3437,26 @@
       <c r="K33" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W33" s="4" t="n">
-        <v>9376357</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>372</v>
-      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>4</v>
@@ -5110,40 +3464,24 @@
       <c r="K34" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="W34" s="4" t="n">
-        <v>468836</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -5151,54 +3489,38 @@
       <c r="K35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>384</v>
-      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -5209,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -5220,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -5231,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -5259,9 +3581,7 @@
       <c r="T40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="4" t="s">
-        <v>389</v>
-      </c>
+      <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
@@ -5272,7 +3592,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -5300,9 +3620,7 @@
       <c r="T41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="4" t="s">
-        <v>389</v>
-      </c>
+      <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
@@ -5313,7 +3631,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -5342,24 +3660,16 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="4" t="s">
-        <v>389</v>
-      </c>
+      <c r="X42" s="4"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W19" r:id="rId1" display="https://www.rcsb.org/structure/4x84 12517338"/>
-    <hyperlink ref="W21" r:id="rId2" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W22" r:id="rId3" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W26" r:id="rId4" display="https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5372,15 +3682,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:50"/>
+  <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="2" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="2" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61886,7 +60196,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -61899,16 +60209,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61921,28 +60232,16 @@
       <c r="C1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61950,16 +60249,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61967,16 +60260,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61984,16 +60271,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62001,16 +60282,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62018,16 +60293,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62035,16 +60304,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62052,16 +60315,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62069,16 +60326,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62086,16 +60337,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62103,16 +60348,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62120,16 +60359,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62137,16 +60370,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62154,16 +60381,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62171,16 +60392,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62188,16 +60403,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62205,16 +60414,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62222,16 +60425,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62239,16 +60436,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62256,16 +60447,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62273,16 +60458,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62290,16 +60469,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62307,16 +60480,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62324,16 +60491,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62341,16 +60502,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62358,16 +60513,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62375,16 +60524,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62392,16 +60535,10 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62409,16 +60546,10 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62426,16 +60557,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62443,16 +60568,10 @@
         <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62460,16 +60579,10 @@
         <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62477,16 +60590,10 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62494,16 +60601,10 @@
         <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62511,16 +60612,10 @@
         <v>52</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62528,16 +60623,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62545,16 +60634,10 @@
         <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62562,16 +60645,10 @@
         <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62579,16 +60656,10 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62596,16 +60667,10 @@
         <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62613,16 +60678,10 @@
         <v>58</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62630,16 +60689,10 @@
         <v>59</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62647,22 +60700,16 @@
         <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -62675,16 +60722,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62692,16 +60740,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62709,13 +60754,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62723,13 +60765,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62737,13 +60776,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62751,13 +60787,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62765,13 +60798,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62779,13 +60809,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62793,13 +60820,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62807,13 +60831,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62821,13 +60842,10 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62835,13 +60853,10 @@
         <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62849,13 +60864,10 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62863,16 +60875,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>181</v>
+      <c r="D13" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62880,16 +60889,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>181</v>
+      <c r="D14" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62897,16 +60903,13 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>181</v>
+      <c r="D15" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62914,410 +60917,329 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -63330,231 +61252,241 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A43"/>
+  <dimension ref="A2:A45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>105</v>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>106</v>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -63569,18 +61501,18 @@
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63801,7 +61733,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -63814,241 +61746,483 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>109</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -64061,31 +62235,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -64096,7 +62270,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -64107,7 +62281,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -64118,7 +62292,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -64129,7 +62303,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -64140,7 +62314,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -64151,7 +62325,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -64162,7 +62336,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -64173,7 +62347,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -64184,7 +62358,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -64195,7 +62369,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -64206,7 +62380,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -64217,7 +62391,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -64228,7 +62402,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -64239,7 +62413,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -64250,7 +62424,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -64261,7 +62435,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -64272,7 +62446,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -64283,7 +62457,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -64294,7 +62468,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -64305,7 +62479,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -64316,7 +62490,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -64327,7 +62501,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -64338,7 +62512,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -64349,7 +62523,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -64360,7 +62534,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -64371,7 +62545,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -64382,7 +62556,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -64393,7 +62567,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -64404,7 +62578,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -64415,7 +62589,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -64426,7 +62600,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -64437,7 +62611,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -64448,7 +62622,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -64459,7 +62633,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -64470,7 +62644,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -64479,9 +62653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -64490,9 +62664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -64503,7 +62677,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -64514,7 +62688,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -64525,19 +62699,41 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -64550,505 +62746,646 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="2" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <f aca="false">B3+B11</f>
+        <v>6140</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>611</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <f aca="false">0.63*10^3</f>
+        <v>630</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <f aca="false">0.63*10^3</f>
+        <v>630</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <f aca="false">4.79*10^3</f>
+        <v>4790</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <f aca="false">4.79*10^3</f>
+        <v>4790</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <f aca="false">0.72*10^3*0.5</f>
+        <v>360</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <f aca="false">0.72*10^3*0.5</f>
+        <v>360</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <f aca="false">5.51*10^3</f>
+        <v>5510</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <f aca="false">1.17*10^3*0.5</f>
+        <v>585</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <f aca="false">1.17*10^3*0.25</f>
+        <v>292.5</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <f aca="false">1.17*10^3*0.25</f>
+        <v>292.5</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <f aca="false">1.17*10^3</f>
+        <v>1170</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <f aca="false">0.59*10^3*0.5</f>
+        <v>295</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <f aca="false">0.59*10^3*0.5</f>
+        <v>295</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <f aca="false">0.44*10^3</f>
+        <v>440</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <f aca="false">0.59*10^3</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <f aca="false">0.15*10^3</f>
+        <v>150</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <f aca="false">0.59*10^3</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <f aca="false">0.15*10^3</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <f aca="false">0.15*10^3</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <f aca="false">6.11*10^ 3</f>
+        <v>6110</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <f aca="false">6.11*10^ 3</f>
+        <v>6110</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <f aca="false">0.57*10^3</f>
+        <v>570</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <f aca="false">0.46*10^3</f>
+        <v>460</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <f aca="false">0.46*10^3</f>
+        <v>460</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <f aca="false">0.46*10^3</f>
+        <v>460</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <f aca="false">5.11*10^3</f>
+        <v>5110</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <f aca="false">5.11*10^3</f>
+        <v>5110</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <f aca="false">4.36*10^3</f>
+        <v>4360</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <f aca="false">4.36*10^3</f>
+        <v>4360</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <f aca="false">3.89*10^3</f>
+        <v>3890</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <f aca="false">0.08*10^3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <f aca="false">B37*0.1</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>5337.5</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <f aca="false">B38*0.1</f>
+        <v>533.75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <f aca="false">B39*0.1</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>470</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+      <c r="C44" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>290</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <f aca="false">B45*0.1</f>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <f aca="false">B46*0.1</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <f aca="false">B47*0.1</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <f aca="false">B48*0.1</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <f aca="false">B49*0.1</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>750</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <f aca="false">B50*0.1</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_thermo_rxns/model_v1_manual2_EX.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_thermo_rxns/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="301">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -39,19 +39,34 @@
     <t xml:space="preserve">Model name</t>
   </si>
   <si>
-    <t xml:space="preserve">putida_v1</t>
+    <t xml:space="preserve">model_v1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -60,7 +75,7 @@
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -69,19 +84,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -666,28 +672,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
+    <t xml:space="preserve">reaction ID</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_mean</t>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_std</t>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
+    <t xml:space="preserve">lower_bound</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_meas2</t>
+    <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -1036,13 +1039,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1063,30 +1070,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="A1:C1 B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,99 +1101,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -1204,38 +1217,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1249,7 +1259,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1263,7 +1273,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1277,7 +1287,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1291,7 +1301,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1305,7 +1315,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1319,7 +1329,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1333,7 +1343,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1347,7 +1357,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1361,7 +1371,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1375,7 +1385,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1389,7 +1399,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1403,7 +1413,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1417,7 +1427,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1431,7 +1441,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1445,7 +1455,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1459,7 +1469,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1473,7 +1483,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1487,7 +1497,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1501,7 +1511,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1515,7 +1525,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1529,7 +1539,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1543,7 +1553,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1557,7 +1567,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1571,7 +1581,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1585,7 +1595,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1599,7 +1609,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1613,7 +1623,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1627,7 +1637,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1641,7 +1651,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1655,7 +1665,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1669,7 +1679,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1683,7 +1693,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1697,7 +1707,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1711,7 +1721,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1725,7 +1735,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1738,8 +1748,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
+      <c r="A38" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1752,8 +1762,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
+      <c r="A39" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1767,7 +1777,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1781,7 +1791,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1795,7 +1805,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1819,38 +1829,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1864,7 +1871,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1878,7 +1885,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1892,7 +1899,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1906,7 +1913,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1920,7 +1927,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1934,7 +1941,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1948,7 +1955,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1962,7 +1969,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1976,7 +1983,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1990,7 +1997,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2004,7 +2011,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2018,7 +2025,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2032,7 +2039,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2046,7 +2053,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2060,7 +2067,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2074,7 +2081,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2088,7 +2095,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2102,7 +2109,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2116,7 +2123,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2130,7 +2137,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2144,7 +2151,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2158,7 +2165,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2172,7 +2179,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2186,7 +2193,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2200,7 +2207,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2214,7 +2221,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2228,7 +2235,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2242,7 +2249,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2256,7 +2263,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2270,7 +2277,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2284,7 +2291,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2298,7 +2305,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2312,7 +2319,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2326,7 +2333,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2340,7 +2347,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2354,7 +2361,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2368,7 +2375,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2382,7 +2389,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2396,7 +2403,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2410,7 +2417,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2424,7 +2431,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2438,7 +2445,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2462,1209 +2469,1208 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X25" activeCellId="0" sqref="X25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X25" activeCellId="1" sqref="A1:C1 X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="K1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="n">
+      <c r="D2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="n">
+      <c r="D3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="n">
+      <c r="D4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="n">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="4" t="n">
+      <c r="D6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="K7" s="4" t="n">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="K7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
+      <c r="T7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="K8" s="4" t="n">
+      <c r="D8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="K8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="T8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="K9" s="4" t="n">
+      <c r="E9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="K9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="K10" s="4" t="n">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="K10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="T10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="K11" s="4" t="n">
+      <c r="D11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="K11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="K12" s="4" t="n">
+      <c r="D12" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="K12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
+      <c r="T12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="4" t="n">
+      <c r="F13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="4" t="n">
+      <c r="F14" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="4" t="n">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="K16" s="4" t="n">
+      <c r="A16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="K16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="K17" s="4" t="n">
+      <c r="E17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="K17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="K18" s="4" t="n">
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="K18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="K19" s="4" t="n">
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="K19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="K20" s="4" t="n">
+      <c r="D20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="K20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="K21" s="4" t="n">
+      <c r="D21" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="K21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="K22" s="4" t="n">
+      <c r="D22" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="K22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="A23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="K23" s="4" t="n">
+      <c r="D23" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="K23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="4" t="n">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="4" t="n">
+      <c r="A26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="A27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="4" t="n">
+      <c r="C28" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="4" t="n">
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="4" t="n">
+      <c r="D30" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="D31" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="4" t="n">
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="4" t="n">
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="J34" s="4" t="n">
+      <c r="I34" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="4" t="n">
+      <c r="C35" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="D36" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K37" s="4" t="n">
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K38" s="4" t="n">
+      <c r="A38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K39" s="4" t="n">
+      <c r="A39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4" t="n">
+      <c r="A40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4" t="n">
+      <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="4" t="n">
+      <c r="A42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3678,177 +3684,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="A1:C1 A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="2" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="3" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BA1" s="0"/>
       <c r="BB1" s="0"/>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -5955,7 +5961,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -7085,7 +7091,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -8215,7 +8221,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -9345,7 +9351,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -10475,7 +10481,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11605,7 +11611,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -12735,7 +12741,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -13865,7 +13871,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -14995,7 +15001,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -16125,7 +16131,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -17255,7 +17261,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -18385,7 +18391,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -19515,7 +19521,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -20645,7 +20651,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -21775,7 +21781,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -22905,7 +22911,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -24035,7 +24041,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -25165,7 +25171,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -26295,7 +26301,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -27425,7 +27431,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -28555,7 +28561,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -29685,7 +29691,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -30815,7 +30821,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -31945,7 +31951,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -33075,7 +33081,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -34205,7 +34211,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -35335,7 +35341,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -36465,7 +36471,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -37595,7 +37601,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -38725,7 +38731,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -39855,7 +39861,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -40985,7 +40991,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -42115,7 +42121,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -43245,7 +43251,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -44375,7 +44381,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -45504,8 +45510,8 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
+      <c r="A38" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -46634,8 +46640,8 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
+      <c r="A39" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -47765,7 +47771,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -48895,7 +48901,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -50025,7 +50031,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -51155,7 +51161,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -52285,7 +52291,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -53415,7 +53421,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -54545,7 +54551,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -55675,7 +55681,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -56805,7 +56811,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -57935,7 +57941,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -59065,7 +59071,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -60205,504 +60211,503 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A1:C1 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="4" t="n">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="4" t="n">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="4" t="n">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="4" t="n">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="4" t="n">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="4" t="n">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="4" t="n">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="4" t="n">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="4" t="n">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="4" t="n">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="4" t="n">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="4" t="n">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="4" t="n">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="4" t="n">
+      <c r="A28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="4" t="n">
+      <c r="A29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="4" t="n">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="4" t="n">
+      <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="4" t="n">
+      <c r="A32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="4" t="n">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="4" t="n">
+      <c r="A34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="4" t="n">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="4" t="n">
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="4" t="n">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="4" t="n">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="4" t="n">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="4" t="n">
+      <c r="A40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="4" t="n">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="4" t="n">
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="4" t="n">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="4" t="n">
+      <c r="A44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60718,523 +60723,522 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A1:C1 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="A11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>178</v>
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>178</v>
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>178</v>
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2"/>
+      <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="A38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="A39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2"/>
+      <c r="A40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -61248,239 +61252,236 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -61495,239 +61496,236 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -61742,35 +61740,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="A1:C1 A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -61781,7 +61776,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -61792,7 +61787,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -61803,7 +61798,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -61814,7 +61809,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -61825,7 +61820,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -61836,7 +61831,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -61847,7 +61842,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -61858,7 +61853,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -61869,7 +61864,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -61880,7 +61875,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -61891,7 +61886,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -61902,7 +61897,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -61913,7 +61908,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -61924,7 +61919,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -61935,7 +61930,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -61946,7 +61941,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -61957,7 +61952,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -61968,7 +61963,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -61979,7 +61974,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -61990,7 +61985,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -62001,7 +61996,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -62012,7 +62007,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -62023,7 +62018,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -62034,7 +62029,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -62045,7 +62040,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -62056,7 +62051,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -62067,7 +62062,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -62078,7 +62073,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -62089,7 +62084,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -62100,7 +62095,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -62111,7 +62106,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -62122,7 +62117,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -62133,7 +62128,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -62144,7 +62139,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -62155,7 +62150,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -62165,8 +62160,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
+      <c r="A38" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -62176,8 +62171,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
+      <c r="A39" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -62188,7 +62183,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -62199,7 +62194,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -62210,7 +62205,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -62231,35 +62226,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -62270,7 +62262,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -62281,7 +62273,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -62292,7 +62284,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -62303,7 +62295,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -62314,7 +62306,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -62325,7 +62317,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -62336,7 +62328,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -62347,7 +62339,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -62358,7 +62350,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -62369,7 +62361,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -62380,7 +62372,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -62391,7 +62383,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -62402,7 +62394,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -62413,7 +62405,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -62424,7 +62416,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -62435,7 +62427,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -62446,7 +62438,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -62457,7 +62449,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -62468,7 +62460,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -62479,7 +62471,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -62490,7 +62482,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -62501,7 +62493,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -62512,7 +62504,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -62523,7 +62515,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -62534,7 +62526,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -62545,7 +62537,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -62556,7 +62548,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -62567,7 +62559,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -62578,7 +62570,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -62589,7 +62581,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -62600,7 +62592,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -62611,7 +62603,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -62622,7 +62614,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -62633,7 +62625,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -62644,7 +62636,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -62655,7 +62647,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -62666,7 +62658,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -62677,7 +62669,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -62688,7 +62680,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -62699,7 +62691,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -62710,7 +62702,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -62721,7 +62713,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -62742,642 +62734,642 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="2" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="19.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="2" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>213</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="n">
         <f aca="false">B3+B11</f>
         <v>6140</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>611</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <f aca="false">0.63*10^3</f>
         <v>630</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <f aca="false">0.63*10^3</f>
         <v>630</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <f aca="false">4.79*10^3</f>
         <v>4790</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <f aca="false">4.79*10^3</f>
         <v>4790</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="4" t="n">
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <f aca="false">0.72*10^3*0.5</f>
         <v>360</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <f aca="false">0.72*10^3*0.5</f>
         <v>360</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="4" t="n">
+      <c r="A11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <f aca="false">5.51*10^3</f>
         <v>5510</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="4" t="n">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4" t="n">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <f aca="false">1.17*10^3*0.5</f>
         <v>585</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="4" t="n">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <f aca="false">1.17*10^3*0.25</f>
         <v>292.5</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="4" t="n">
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <f aca="false">1.17*10^3*0.25</f>
         <v>292.5</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <f aca="false">1.17*10^3</f>
         <v>1170</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="4" t="n">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <f aca="false">0.59*10^3*0.5</f>
         <v>295</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="4" t="n">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <f aca="false">0.59*10^3*0.5</f>
         <v>295</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="4" t="n">
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <f aca="false">0.44*10^3</f>
         <v>440</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <f aca="false">0.59*10^3</f>
         <v>590</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="4" t="n">
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <f aca="false">0.59*10^3</f>
         <v>590</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="4" t="n">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="4" t="n">
+      <c r="A22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="4" t="n">
+      <c r="A23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="4" t="n">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <f aca="false">6.11*10^ 3</f>
         <v>6110</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="4" t="n">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="5" t="n">
         <f aca="false">6.11*10^ 3</f>
         <v>6110</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4" t="n">
+      <c r="A26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="5" t="n">
         <f aca="false">0.57*10^3</f>
         <v>570</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="4" t="n">
+      <c r="A27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="5" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="5" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="4" t="n">
+      <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="5" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="4" t="n">
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="5" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="4" t="n">
+      <c r="A30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="5" t="n">
         <f aca="false">5.11*10^3</f>
         <v>5110</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="4" t="n">
+      <c r="A31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="n">
         <f aca="false">5.11*10^3</f>
         <v>5110</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="5" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4" t="n">
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="5" t="n">
         <f aca="false">4.36*10^3</f>
         <v>4360</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="n">
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="n">
         <f aca="false">4.36*10^3</f>
         <v>4360</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="5" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="4" t="n">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="5" t="n">
         <f aca="false">3.89*10^3</f>
         <v>3890</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="5" t="n">
         <f aca="false">0.08*10^3</f>
         <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="4" t="n">
+      <c r="A35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="5" t="n">
         <v>700</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="5" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="4" t="n">
+      <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="5" t="n">
         <v>700</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="5" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="4" t="n">
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5" t="n">
         <v>2230</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="5" t="n">
         <f aca="false">B37*0.1</f>
         <v>223</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="4" t="n">
+      <c r="A38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="n">
         <v>5337.5</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="5" t="n">
         <f aca="false">B38*0.1</f>
         <v>533.75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="4" t="n">
+      <c r="A39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="5" t="n">
         <v>312.5</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="5" t="n">
         <f aca="false">B39*0.1</f>
         <v>31.25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="4" t="n">
+      <c r="A40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="5" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="4" t="n">
+      <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="5" t="n">
         <v>470</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="5" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="4" t="n">
+      <c r="A42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="5" t="n">
         <v>700</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="5" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="4" t="n">
+      <c r="A43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="4" t="n">
+      <c r="A44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="4" t="n">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="5" t="n">
         <v>290</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="5" t="n">
         <f aca="false">B45*0.1</f>
         <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="4" t="n">
+      <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="5" t="n">
         <f aca="false">B46*0.1</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="4" t="n">
+      <c r="A47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="5" t="n">
         <f aca="false">B47*0.1</f>
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="4" t="n">
+      <c r="A48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="5" t="n">
         <f aca="false">B48*0.1</f>
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="4" t="n">
+      <c r="A49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="5" t="n">
         <f aca="false">B49*0.1</f>
         <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="4" t="n">
+      <c r="A50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="5" t="n">
         <v>750</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="5" t="n">
         <f aca="false">B50*0.1</f>
         <v>75</v>
       </c>
